--- a/VDM/bin/x64/Debug/aspose/村干部信息导入模板.xlsx
+++ b/VDM/bin/x64/Debug/aspose/村干部信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     </border>
   </borders>
   <cellStyleXfs count="55">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,21 +1303,21 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.07272727272727" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="5.66371681415929" customWidth="1"/>
-    <col min="3" max="4" width="11.070796460177" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.66371681415929" customWidth="1"/>
-    <col min="6" max="6" width="7.66371681415929" customWidth="1"/>
-    <col min="7" max="7" width="9.60176991150442" customWidth="1"/>
-    <col min="8" max="8" width="11.070796460177" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.8672566371681" customWidth="1"/>
-    <col min="10" max="10" width="9.60176991150442" customWidth="1"/>
-    <col min="11" max="11" width="5.66371681415929" customWidth="1"/>
-    <col min="12" max="13" width="7.66371681415929" customWidth="1"/>
+    <col min="1" max="2" width="5.66363636363636" customWidth="1"/>
+    <col min="3" max="4" width="11.0727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="7.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="9.6" customWidth="1"/>
+    <col min="8" max="8" width="11.0727272727273" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.8636363636364" customWidth="1"/>
+    <col min="10" max="10" width="9.6" customWidth="1"/>
+    <col min="11" max="11" width="5.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="7.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">

--- a/VDM/bin/x64/Debug/aspose/村干部信息导入模板.xlsx
+++ b/VDM/bin/x64/Debug/aspose/村干部信息导入模板.xlsx
@@ -1362,13 +1362,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 G1"/>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 G1 K1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"群众,团员,党员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"小学,初中,高中,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
